--- a/tableau/infographics_data/SurveyResponsesForInfographics.xlsx
+++ b/tableau/infographics_data/SurveyResponsesForInfographics.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3C69C742-9A4A-4D70-BE6B-D9D80D72F19A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,9 +34,6 @@
     <t>Grand Total</t>
   </si>
   <si>
-    <t>Proportion of Yes</t>
-  </si>
-  <si>
     <t>18 - 25</t>
   </si>
   <si>
@@ -49,12 +47,15 @@
   </si>
   <si>
     <t>Age range</t>
+  </si>
+  <si>
+    <t>Yes_of_total_yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -365,16 +366,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -389,12 +392,12 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -409,13 +412,13 @@
         <v>19</v>
       </c>
       <c r="F2">
-        <f>D2/E2</f>
-        <v>0.42105263157894735</v>
+        <f>D2/$D$6* 100</f>
+        <v>11.594202898550725</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>20</v>
@@ -430,13 +433,13 @@
         <v>65</v>
       </c>
       <c r="F3">
-        <f>D3/E3</f>
-        <v>0.4</v>
+        <f t="shared" ref="F3:F5" si="0">D3/$D$6* 100</f>
+        <v>37.681159420289859</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>19</v>
@@ -451,13 +454,13 @@
         <v>66</v>
       </c>
       <c r="F4">
-        <f>D4/E4</f>
-        <v>0.48484848484848486</v>
+        <f t="shared" si="0"/>
+        <v>46.376811594202898</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>17</v>
@@ -472,11 +475,11 @@
         <v>25</v>
       </c>
       <c r="F5">
-        <f>D5/E5</f>
-        <v>0.12</v>
+        <f t="shared" si="0"/>
+        <v>4.3478260869565215</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -493,8 +496,8 @@
         <v>176</v>
       </c>
       <c r="F6">
-        <f>D6/E6</f>
-        <v>0.39204545454545453</v>
+        <f>D6/$D$6* 100</f>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
